--- a/CSC-120/Excel/Chapter 2 Capstone/e02c1Gym_CoronelFrances.xlsx
+++ b/CSC-120/Excel/Chapter 2 Capstone/e02c1Gym_CoronelFrances.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fvcproductions/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fvcproductions/Dropbox/GitHub/cs-hu/CSC-120/Excel/Chapter 2 Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="-4520" yWindow="-23540" windowWidth="38400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="New Clients" sheetId="10" r:id="rId1"/>
@@ -200,30 +200,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -531,550 +563,626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="167" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
     <col min="15" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="18">
         <f ca="1">TODAY()</f>
-        <v>42461</v>
+        <v>42464</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <f>LOOKUP(B5,$A$18:$A$20, $B$18:$B$20)</f>
         <v>575</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="8">
         <f>IF(D5="Yes",C5+$B$22,C5)</f>
         <v>650</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="8">
         <f>E5*F5</f>
         <v>650</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="8">
         <f>LOOKUP(B5,$A$18:$C$20,$C$18:$C$20)</f>
         <v>250</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="8">
         <f>G5-H5</f>
         <v>400</v>
       </c>
-      <c r="J5" s="14">
-        <f t="shared" ref="J5:J13" si="0">(I5/(12*F5))</f>
-        <v>33.333333333333336</v>
+      <c r="J5" s="9">
+        <f>I5/(12*F5)+(I5/(12*F5))*($B$23)</f>
+        <v>35.25</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C13" si="1">LOOKUP(B6,$A$18:$A$20, $B$18:$B$20)</f>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:C13" si="0">LOOKUP(B6,$A$18:$A$20, $B$18:$B$20)</f>
         <v>300</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="14">
-        <f t="shared" ref="E6:E13" si="2">IF(D6="Yes",C6+$B$22,C6)</f>
+      <c r="E6" s="8">
+        <f t="shared" ref="E6:E13" si="1">IF(D6="Yes",C6+$B$22,C6)</f>
         <v>375</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="14">
-        <f t="shared" ref="G6:G13" si="3">E6*F6</f>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G13" si="2">E6*F6</f>
         <v>750</v>
       </c>
-      <c r="H6" s="14">
-        <f t="shared" ref="H6:H13" si="4">LOOKUP(B6,$A$18:$C$20,$C$18:$C$20)</f>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:H13" si="3">LOOKUP(B6,$A$18:$C$20,$C$18:$C$20)</f>
         <v>150</v>
       </c>
-      <c r="I6" s="14">
-        <f t="shared" ref="I6:I13" si="5">G6-H6</f>
+      <c r="I6" s="8">
+        <f t="shared" ref="I6:I13" si="4">G6-H6</f>
         <v>600</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="9">
+        <f t="shared" ref="J6:J13" si="5">I6/(12*F6)+(I6/(12*F6))*($B$23)</f>
+        <v>26.4375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
+        <v>1500</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="4"/>
+        <v>3800</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="5"/>
+        <v>111.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="14">
-        <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="3"/>
-        <v>4500</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="4"/>
-        <v>700</v>
-      </c>
-      <c r="I7" s="14">
-        <f t="shared" si="5"/>
-        <v>3800</v>
-      </c>
-      <c r="J7" s="14">
-        <f t="shared" si="0"/>
-        <v>105.55555555555556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>575</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="2"/>
+        <v>1150</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="5"/>
+        <v>39.65625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>575</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="2"/>
+        <v>1950</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="5"/>
+        <v>49.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14">
-        <f t="shared" si="2"/>
-        <v>575</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="3"/>
-        <v>1150</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="I8" s="14">
-        <f t="shared" si="5"/>
-        <v>900</v>
-      </c>
-      <c r="J8" s="14">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>575</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="14">
-        <f t="shared" si="2"/>
-        <v>650</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="3"/>
-        <v>1950</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="4"/>
-        <v>250</v>
-      </c>
-      <c r="I9" s="14">
-        <f t="shared" si="5"/>
-        <v>1700</v>
-      </c>
-      <c r="J9" s="14">
-        <f t="shared" si="0"/>
-        <v>47.222222222222221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="H10" s="8">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="H10" s="14">
+        <v>150</v>
+      </c>
+      <c r="I10" s="8">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="I10" s="14">
+      <c r="J10" s="9">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="J10" s="14">
+        <v>13.21875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="5"/>
+        <v>19.828125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="I11" s="14">
-        <f t="shared" si="5"/>
-        <v>450</v>
-      </c>
-      <c r="J11" s="14">
-        <f t="shared" si="0"/>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="4"/>
+        <v>750</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="5"/>
+        <v>22.03125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F12" s="4">
+      <c r="D13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+      <c r="H13" s="8">
         <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="H12" s="14">
+        <v>150</v>
+      </c>
+      <c r="I13" s="8">
         <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="I12" s="14">
+        <v>975</v>
+      </c>
+      <c r="J13" s="9">
         <f t="shared" si="5"/>
-        <v>750</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" si="0"/>
-        <v>20.833333333333332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="14">
-        <f t="shared" si="2"/>
-        <v>375</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="3"/>
-        <v>1125</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="I13" s="14">
-        <f t="shared" si="5"/>
-        <v>975</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" si="0"/>
-        <v>27.083333333333332</v>
+        <v>28.640625</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8">
+        <f>SUM(C5:C13)</f>
+        <v>4725</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <f>SUM(E5:E13)</f>
+        <v>5025</v>
+      </c>
+      <c r="F14" s="11">
+        <f>SUM(F5:F13)</f>
+        <v>20</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(G5:G13)</f>
+        <v>11925</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(H5:H13)</f>
+        <v>2200</v>
+      </c>
+      <c r="I14" s="8">
+        <f>SUM(I5:I13)</f>
+        <v>9725</v>
+      </c>
+      <c r="J14" s="8">
+        <f>SUM(J5:J13)</f>
+        <v>346.625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="A18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="12">
         <v>575</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="17">
         <v>250</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="12">
+      <c r="G18" s="7"/>
+      <c r="H18" s="13">
         <f>COUNTA(B5:B13)</f>
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="12">
         <v>1500</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="17">
         <v>700</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="11">
+      <c r="G19" s="7"/>
+      <c r="H19" s="8">
         <f>MIN(J5:J13)</f>
-        <v>12.5</v>
+        <v>13.21875</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="12">
         <v>300</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="17">
         <v>150</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="11">
+      <c r="G20" s="7"/>
+      <c r="H20" s="8">
         <f>AVERAGE(J5:J13)</f>
-        <v>36.419753086419746</v>
+        <v>38.513888888888886</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="11">
+      <c r="G21" s="7"/>
+      <c r="H21" s="8">
         <f>MAX(J5:J13)</f>
-        <v>105.55555555555556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+        <v>111.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="12">
         <v>75</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="11">
+      <c r="G22" s="7"/>
+      <c r="H22" s="8">
         <f>MEDIAN(J5:J13)</f>
-        <v>27.083333333333332</v>
+        <v>28.640625</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="14">
         <v>5.7500000000000002E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>12</v>
       </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="I29" s="2"/>
+      <c r="I29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="halfwidthKatakana" alignment="noControl"/>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.5" footer="0.5"/>
